--- a/可能夥伴.xlsx
+++ b/可能夥伴.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>敬昕</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,111 +54,136 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>厚澤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐心、美術風格好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hsun Ke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐心、熱情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不熟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒興趣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擅長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企劃、劇本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程式、日語、日系文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日系文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美術</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企劃、編輯器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中年人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看小說、看動畫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊戲製作不熟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外星人、遊戲製作不熟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>對遊戲的熱情不知道夠不夠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭建宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懂遊戲、知識豐富、對有興趣的事情有熱情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不好相處、少同理心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歐美遊戲、規劃分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐心、老實</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好溝通、學習能力好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擅長內容重疊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己份外的工作比較沒動力，只專注在偏日系跟我嗜好有點不合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>耐心、責任感、細心、劇本專長、謹慎、懂遊戲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>厚澤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>懂遊戲、知識豐富、有想法、對有興趣的事情有熱情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐心、美術風格好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hsun Ke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自己份外的工作比較沒動力，遊戲都完日系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有時候想太多跟微負面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>耐心、熱情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不熟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沒興趣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>擅長</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企劃、劇本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程式、日語、日系文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歐美遊戲、規劃分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日系文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>美術</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>企劃、編輯器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>擅長內容重疊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>許小偉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二次元平台創辦人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中年人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐心、老實</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看小說、看動畫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遊戲製作不熟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外星人、遊戲製作不熟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不好相處、少同理心、自我意識高</t>
+    <t>有企劃觀念的美術</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">intuition7 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jackyssdd@yahoo.com.tw
+https://www.artstation.com/jackyssdd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -542,6 +567,7 @@
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="3" width="26.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -549,7 +575,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -558,7 +584,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -566,47 +592,47 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
@@ -614,13 +640,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -628,55 +654,72 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
+    </row>
+    <row r="10" spans="1:5" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
